--- a/output6/【河洛話注音】《桃花園記》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《桃花園記》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD2A917-91BD-4287-834C-37CDCE9BC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA3800B-9EFD-4B9D-882D-5EF46DD84642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="795">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1766,1336 +1766,1568 @@
   </si>
   <si>
     <t>tsin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>poo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㆩˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hng7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆭ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>na5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄚˊ</t>
-  </si>
-  <si>
-    <t>siau3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄠ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngeh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huann7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆩ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㆪ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄚㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>〔soo²〕
+【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="1"/>
+      </rPr>
+      <t>ㄙ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ㆦˋ】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>koh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄜㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>king5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>ㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㄧˋ</t>
-  </si>
-  <si>
-    <t>pan1</t>
-  </si>
-  <si>
-    <t>ㄅㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>na7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆭ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆢㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshoo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㆦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>hiap8</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄨㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pinn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆪˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>giam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄧㆰˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆭ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆫ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsoh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄜㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tioh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄜㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ng5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆭˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄆㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄜㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kinn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆪ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mng7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄇㆭ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsiah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄚㆷ˙</t>
-  </si>
-  <si>
-    <t>tshng1</t>
-  </si>
-  <si>
-    <t>ㄘㆭ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧ˪</t>
-  </si>
-  <si>
-    <t>piah4</t>
-  </si>
-  <si>
-    <t>ㄅㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>luan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>king2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>keh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>than3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄢ˪</t>
-  </si>
-  <si>
-    <t>iu5</t>
-  </si>
-  <si>
-    <t>ㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㆦㆻ</t>
-  </si>
-  <si>
-    <t>thau5</t>
-  </si>
-  <si>
-    <t>ㄊㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>hiann3</t>
-  </si>
-  <si>
-    <t>ㄏㄧㆩ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ge7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsiah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tshue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>be5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>him1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㆬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄨㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>be7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>penn7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>au7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tsia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>tsin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄧㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㆤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆩˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hng7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆭ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngeh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆤㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huann7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆩ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshinn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㆪ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄚㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siann2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆩˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phiah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3103,7 +3335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="81">
+  <fonts count="85">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3641,11 +3873,26 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -3669,6 +3916,19 @@
       <color rgb="FF000000"/>
       <name val="吳守禮細明台語注音"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3841,7 +4101,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4119,7 +4379,7 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4140,13 +4400,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5378,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -5445,39 +5711,39 @@
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
       <c r="F4" s="82" t="s">
-        <v>747</v>
+        <v>409</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>749</v>
+        <v>411</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>751</v>
+        <v>413</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>753</v>
+        <v>415</v>
       </c>
       <c r="J4" s="82"/>
       <c r="K4" s="82" t="s">
-        <v>755</v>
+        <v>417</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>757</v>
+        <v>419</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>759</v>
+        <v>421</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="82" t="s">
-        <v>761</v>
+        <v>423</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>763</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>765</v>
+        <v>427</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>767</v>
+        <v>429</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="98"/>
@@ -5510,7 +5776,7 @@
       <c r="K5" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="106" t="s">
         <v>262</v>
       </c>
       <c r="M5" s="103" t="s">
@@ -5540,39 +5806,39 @@
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="83" t="s">
-        <v>748</v>
+        <v>410</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>750</v>
+        <v>412</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>752</v>
+        <v>414</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>754</v>
+        <v>416</v>
       </c>
       <c r="J6" s="83"/>
       <c r="K6" s="83" t="s">
-        <v>756</v>
+        <v>418</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>758</v>
+        <v>420</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>760</v>
+        <v>422</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83" t="s">
-        <v>762</v>
+        <v>424</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>764</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>766</v>
+        <v>428</v>
       </c>
       <c r="R6" s="83" t="s">
-        <v>768</v>
+        <v>430</v>
       </c>
       <c r="S6" s="93"/>
       <c r="V6" s="98"/>
@@ -5602,42 +5868,42 @@
       <c r="B8" s="56"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>769</v>
+        <v>431</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>771</v>
+        <v>433</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>773</v>
+        <v>435</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="82" t="s">
-        <v>775</v>
+        <v>437</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>777</v>
+        <v>439</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>779</v>
+        <v>441</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>781</v>
+        <v>443</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>783</v>
+        <v>445</v>
       </c>
       <c r="N8" s="82"/>
       <c r="O8" s="82" t="s">
-        <v>785</v>
+        <v>447</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>787</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>789</v>
+        <v>451</v>
       </c>
       <c r="R8" s="82" t="s">
-        <v>791</v>
+        <v>453</v>
       </c>
       <c r="S8" s="91"/>
       <c r="V8" s="98"/>
@@ -5700,42 +5966,42 @@
       <c r="B10" s="58"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>770</v>
+        <v>432</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>772</v>
+        <v>434</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>774</v>
+        <v>436</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83" t="s">
-        <v>776</v>
+        <v>438</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>778</v>
+        <v>440</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>780</v>
+        <v>442</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>782</v>
+        <v>444</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>784</v>
+        <v>446</v>
       </c>
       <c r="N10" s="83"/>
       <c r="O10" s="83" t="s">
-        <v>786</v>
+        <v>448</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>788</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="83" t="s">
-        <v>790</v>
+        <v>452</v>
       </c>
       <c r="R10" s="83" t="s">
-        <v>792</v>
+        <v>454</v>
       </c>
       <c r="S10" s="94"/>
       <c r="V10" s="98"/>
@@ -5747,7 +6013,9 @@
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="H11" s="81" t="s">
+        <v>487</v>
+      </c>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
@@ -5763,43 +6031,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="82" t="s">
-        <v>793</v>
+        <v>455</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="82" t="s">
-        <v>795</v>
+        <v>457</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>797</v>
+        <v>459</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>799</v>
+        <v>488</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>801</v>
+        <v>461</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>761</v>
+        <v>423</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="82" t="s">
-        <v>753</v>
+        <v>415</v>
       </c>
       <c r="M12" s="82" t="s">
-        <v>803</v>
+        <v>463</v>
       </c>
       <c r="N12" s="82" t="s">
-        <v>805</v>
+        <v>465</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>807</v>
+        <v>467</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82" t="s">
-        <v>809</v>
+        <v>469</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>811</v>
+        <v>471</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="98"/>
@@ -5809,19 +6077,19 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="106" t="s">
         <v>275</v>
       </c>
       <c r="E13" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="106" t="s">
         <v>276</v>
       </c>
       <c r="G13" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="106" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="103" t="s">
@@ -5860,43 +6128,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="83" t="s">
-        <v>794</v>
+        <v>456</v>
       </c>
       <c r="E14" s="83"/>
       <c r="F14" s="83" t="s">
-        <v>796</v>
+        <v>458</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>798</v>
+        <v>460</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>800</v>
+        <v>489</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>802</v>
+        <v>462</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>762</v>
+        <v>424</v>
       </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83" t="s">
-        <v>754</v>
+        <v>416</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>804</v>
+        <v>464</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>806</v>
+        <v>466</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>808</v>
+        <v>468</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83" t="s">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="R14" s="83" t="s">
-        <v>812</v>
+        <v>472</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="98"/>
@@ -5927,43 +6195,43 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>813</v>
+        <v>473</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>815</v>
+        <v>475</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82" t="s">
-        <v>817</v>
+        <v>477</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>819</v>
+        <v>479</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>821</v>
+        <v>481</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>823</v>
+        <v>483</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82" t="s">
-        <v>763</v>
+        <v>425</v>
       </c>
       <c r="M16" s="82" t="s">
-        <v>759</v>
+        <v>421</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>825</v>
+        <v>485</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="98"/>
@@ -5976,7 +6244,7 @@
       <c r="D17" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="106" t="s">
         <v>282</v>
       </c>
       <c r="F17" s="103" t="s">
@@ -6015,7 +6283,7 @@
       <c r="Q17" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="R17" s="103" t="s">
+      <c r="R17" s="106" t="s">
         <v>290</v>
       </c>
       <c r="S17" s="92"/>
@@ -6024,43 +6292,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>814</v>
+        <v>474</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>816</v>
+        <v>476</v>
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83" t="s">
-        <v>818</v>
+        <v>478</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>820</v>
+        <v>480</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>822</v>
+        <v>482</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>824</v>
+        <v>484</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83" t="s">
-        <v>764</v>
+        <v>426</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>760</v>
+        <v>422</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>826</v>
+        <v>486</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="98"/>
@@ -6088,23 +6356,23 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="82" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>453</v>
+        <v>777</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82"/>
@@ -6137,7 +6405,7 @@
       <c r="H21" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="106" t="s">
         <v>199</v>
       </c>
       <c r="J21" s="103" t="s">
@@ -6159,23 +6427,23 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="83" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="83"/>
@@ -6304,39 +6572,39 @@
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="I28" s="82" t="s">
         <v>413</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82" t="s">
-        <v>459</v>
+        <v>779</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="M28" s="82" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="N28" s="82" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="O28" s="82"/>
       <c r="P28" s="82" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="R28" s="82" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="S28" s="91"/>
       <c r="U28" s="67" t="str">
@@ -6371,7 +6639,7 @@
       <c r="J29" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="K29" s="103" t="s">
+      <c r="K29" s="106" t="s">
         <v>295</v>
       </c>
       <c r="L29" s="103" t="s">
@@ -6407,39 +6675,39 @@
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="I30" s="83" t="s">
         <v>414</v>
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83" t="s">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="L30" s="83" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="M30" s="83" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="O30" s="83"/>
       <c r="P30" s="83" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="Q30" s="83" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="R30" s="83" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="S30" s="94"/>
       <c r="U30" s="67" t="str">
@@ -6475,43 +6743,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="E32" s="82"/>
       <c r="F32" s="82" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="H32" s="82" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="82" t="s">
-        <v>459</v>
+        <v>779</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="N32" s="82" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="O32" s="82"/>
       <c r="P32" s="82" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -6537,7 +6805,7 @@
       <c r="G33" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="H33" s="103" t="s">
+      <c r="H33" s="106" t="s">
         <v>299</v>
       </c>
       <c r="I33" s="103" t="s">
@@ -6576,43 +6844,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="83" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="K34" s="83"/>
       <c r="L34" s="83" t="s">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="O34" s="83"/>
       <c r="P34" s="83" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -6641,39 +6909,39 @@
       <c r="B36" s="56"/>
       <c r="D36" s="82"/>
       <c r="E36" s="82" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>489</v>
+        <v>781</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L36" s="82"/>
       <c r="M36" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="N36" s="82" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>437</v>
+        <v>783</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="R36" s="82"/>
       <c r="S36" s="91"/>
@@ -6693,7 +6961,7 @@
       <c r="F37" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="106" t="s">
         <v>306</v>
       </c>
       <c r="H37" s="103" t="s">
@@ -6711,7 +6979,7 @@
       <c r="L37" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="106" t="s">
         <v>290</v>
       </c>
       <c r="N37" s="103" t="s">
@@ -6736,39 +7004,39 @@
       <c r="B38" s="58"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>490</v>
+        <v>782</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L38" s="83"/>
       <c r="M38" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>438</v>
+        <v>784</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="R38" s="83"/>
       <c r="S38" s="94"/>
@@ -6797,42 +7065,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="82" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="H40" s="82"/>
       <c r="I40" s="82" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="K40" s="82" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="M40" s="82"/>
       <c r="N40" s="82" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="R40" s="82"/>
       <c r="S40" s="91"/>
@@ -6894,42 +7162,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="83" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="H42" s="83"/>
       <c r="I42" s="83" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="J42" s="83" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="K42" s="83" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="L42" s="83" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="M42" s="83"/>
       <c r="N42" s="83" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="O42" s="83" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="P42" s="83" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="R42" s="83"/>
       <c r="S42" s="94"/>
@@ -6958,41 +7226,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="82" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="G44" s="82"/>
       <c r="H44" s="82" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="J44" s="82"/>
       <c r="K44" s="82" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="N44" s="82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="O44" s="82" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="P44" s="82"/>
       <c r="Q44" s="82" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="R44" s="82" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -7053,41 +7321,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="83" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="G46" s="83"/>
       <c r="H46" s="83" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="J46" s="83"/>
       <c r="K46" s="83" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="L46" s="83"/>
       <c r="M46" s="83" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="P46" s="83"/>
       <c r="Q46" s="83" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="R46" s="83" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -7115,42 +7383,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="82" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="F48" s="82"/>
       <c r="G48" s="82" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="H48" s="82" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="J48" s="82" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="K48" s="82"/>
       <c r="L48" s="82" t="s">
-        <v>453</v>
+        <v>777</v>
       </c>
       <c r="M48" s="82" t="s">
         <v>415</v>
       </c>
       <c r="N48" s="82" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="O48" s="82" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="P48" s="82" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="Q48" s="82" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="R48" s="82"/>
       <c r="S48" s="91"/>
@@ -7200,7 +7468,7 @@
       <c r="P49" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="Q49" s="103" t="s">
+      <c r="Q49" s="106" t="s">
         <v>213</v>
       </c>
       <c r="R49" s="103" t="s">
@@ -7212,42 +7480,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="J50" s="83" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="K50" s="83"/>
       <c r="L50" s="83" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="M50" s="83" t="s">
         <v>416</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="O50" s="83" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="P50" s="83" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="R50" s="83"/>
       <c r="S50" s="94"/>
@@ -7276,42 +7544,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="F52" s="82" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="H52" s="82"/>
       <c r="I52" s="82" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M52" s="82"/>
       <c r="N52" s="82" t="s">
-        <v>565</v>
+        <v>606</v>
       </c>
       <c r="O52" s="82" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="P52" s="82" t="s">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="Q52" s="82" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="R52" s="82"/>
       <c r="S52" s="91"/>
@@ -7331,7 +7599,7 @@
       <c r="F53" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="106" t="s">
         <v>334</v>
       </c>
       <c r="H53" s="103" t="s">
@@ -7373,42 +7641,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="H54" s="83"/>
       <c r="I54" s="83" t="s">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M54" s="83"/>
       <c r="N54" s="83" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="O54" s="83" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="P54" s="83" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="R54" s="83"/>
       <c r="S54" s="94"/>
@@ -7437,43 +7705,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="82" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="F56" s="82" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
       <c r="H56" s="82" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="82" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
       <c r="K56" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" s="82" t="s">
         <v>421</v>
-      </c>
-      <c r="L56" s="82" t="s">
-        <v>417</v>
       </c>
       <c r="M56" s="82"/>
       <c r="N56" s="82" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="O56" s="82" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="P56" s="82" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="Q56" s="82"/>
       <c r="R56" s="82" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="S56" s="91"/>
       <c r="V56" s="60"/>
@@ -7495,7 +7763,7 @@
       <c r="G57" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="106" t="s">
         <v>252</v>
       </c>
       <c r="I57" s="103" t="s">
@@ -7534,43 +7802,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="83" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="I58" s="83"/>
       <c r="J58" s="83" t="s">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="K58" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="L58" s="83" t="s">
         <v>422</v>
-      </c>
-      <c r="L58" s="83" t="s">
-        <v>418</v>
       </c>
       <c r="M58" s="83"/>
       <c r="N58" s="83" t="s">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="O58" s="83" t="s">
-        <v>586</v>
+        <v>627</v>
       </c>
       <c r="P58" s="83" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="Q58" s="83"/>
       <c r="R58" s="83" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -7598,43 +7866,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="82" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="F60" s="82" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="G60" s="82"/>
       <c r="H60" s="82" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="I60" s="82" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="J60" s="82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="K60" s="82"/>
       <c r="L60" s="82" t="s">
-        <v>459</v>
+        <v>779</v>
       </c>
       <c r="M60" s="82" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="N60" s="82" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="O60" s="82" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="P60" s="82"/>
       <c r="Q60" s="82" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="R60" s="82" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="S60" s="91"/>
       <c r="V60" s="60"/>
@@ -7668,10 +7936,10 @@
       <c r="K61" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="L61" s="103" t="s">
+      <c r="L61" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="M61" s="103" t="s">
+      <c r="M61" s="106" t="s">
         <v>347</v>
       </c>
       <c r="N61" s="103" t="s">
@@ -7695,43 +7963,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="83" t="s">
-        <v>592</v>
+        <v>489</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="F62" s="83" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="G62" s="83"/>
       <c r="H62" s="83" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="I62" s="83" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="J62" s="83" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K62" s="83"/>
       <c r="L62" s="83" t="s">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="M62" s="83" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="N62" s="83" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="O62" s="83" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="P62" s="83"/>
       <c r="Q62" s="83" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="R62" s="83" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="S62" s="94"/>
       <c r="V62" s="60"/>
@@ -7760,40 +8028,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="82"/>
       <c r="E64" s="82" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="F64" s="82" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="G64" s="82"/>
       <c r="H64" s="82" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="I64" s="82" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="J64" s="82"/>
       <c r="K64" s="82" t="s">
-        <v>607</v>
+        <v>785</v>
       </c>
       <c r="L64" s="82" t="s">
         <v>415</v>
       </c>
       <c r="M64" s="82" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="N64" s="82" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="O64" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="P64" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q64" s="82"/>
       <c r="R64" s="82" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="S64" s="91"/>
       <c r="V64" s="60"/>
@@ -7824,7 +8092,7 @@
       <c r="J65" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="K65" s="103" t="s">
+      <c r="K65" s="106" t="s">
         <v>353</v>
       </c>
       <c r="L65" s="103" t="s">
@@ -7855,40 +8123,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="83"/>
       <c r="E66" s="83" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="F66" s="83" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="83" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="I66" s="83" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="J66" s="83"/>
       <c r="K66" s="83" t="s">
-        <v>608</v>
+        <v>786</v>
       </c>
       <c r="L66" s="83" t="s">
         <v>416</v>
       </c>
       <c r="M66" s="83" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="N66" s="83" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="O66" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="P66" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q66" s="83"/>
       <c r="R66" s="83" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="S66" s="94"/>
       <c r="V66" s="60"/>
@@ -7916,40 +8184,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="82" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="G68" s="82"/>
       <c r="H68" s="82" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
       <c r="I68" s="82" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="J68" s="82"/>
       <c r="K68" s="82"/>
       <c r="L68" s="82" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="M68" s="82" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="N68" s="82" t="s">
-        <v>621</v>
+        <v>787</v>
       </c>
       <c r="O68" s="82" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="P68" s="82" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="Q68" s="82" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="R68" s="82"/>
       <c r="S68" s="91"/>
@@ -7990,7 +8258,7 @@
       <c r="M69" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="N69" s="103" t="s">
+      <c r="N69" s="106" t="s">
         <v>358</v>
       </c>
       <c r="O69" s="103" t="s">
@@ -8011,40 +8279,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="G70" s="83"/>
       <c r="H70" s="83" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="I70" s="83" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="J70" s="83"/>
       <c r="K70" s="83"/>
       <c r="L70" s="83" t="s">
-        <v>618</v>
+        <v>656</v>
       </c>
       <c r="M70" s="83" t="s">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>622</v>
+        <v>788</v>
       </c>
       <c r="O70" s="83" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="P70" s="83" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="Q70" s="83" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="R70" s="83"/>
       <c r="S70" s="94"/>
@@ -8073,44 +8341,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="82" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="H72" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="J72" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="K72" s="82" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="L72" s="82" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="M72" s="82"/>
       <c r="N72" s="82" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="O72" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="P72" s="82" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="Q72" s="82" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="R72" s="82"/>
       <c r="S72" s="91"/>
@@ -8172,44 +8440,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="83" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="G74" s="83" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="H74" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="J74" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="K74" s="83" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="L74" s="83" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="M74" s="83"/>
       <c r="N74" s="83" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="O74" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="P74" s="83" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="Q74" s="83" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="R74" s="83"/>
       <c r="S74" s="94"/>
@@ -8238,40 +8506,40 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="F76" s="82" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="G76" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H76" s="82" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="I76" s="82" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="J76" s="82"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="M76" s="82"/>
       <c r="N76" s="82" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="O76" s="82" t="s">
+        <v>693</v>
+      </c>
+      <c r="P76" s="82" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q76" s="82" t="s">
         <v>657</v>
-      </c>
-      <c r="P76" s="82" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q76" s="82" t="s">
-        <v>619</v>
       </c>
       <c r="R76" s="82"/>
       <c r="S76" s="91"/>
@@ -8285,7 +8553,7 @@
       <c r="D77" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="E77" s="103" t="s">
+      <c r="E77" s="106" t="s">
         <v>366</v>
       </c>
       <c r="F77" s="103" t="s">
@@ -8333,40 +8601,40 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="F78" s="83" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="G78" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="J78" s="83"/>
       <c r="K78" s="83"/>
       <c r="L78" s="83" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="M78" s="83"/>
       <c r="N78" s="83" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="O78" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="P78" s="83" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q78" s="83" t="s">
         <v>658</v>
-      </c>
-      <c r="P78" s="83" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q78" s="83" t="s">
-        <v>620</v>
       </c>
       <c r="R78" s="83"/>
       <c r="S78" s="94"/>
@@ -8396,29 +8664,29 @@
       <c r="B80" s="56"/>
       <c r="D80" s="82"/>
       <c r="E80" s="82" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="F80" s="82" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="H80" s="82" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="J80" s="82"/>
       <c r="K80" s="82" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="L80" s="82" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
@@ -8426,10 +8694,10 @@
       </c>
       <c r="P80" s="82"/>
       <c r="Q80" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="R80" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S80" s="91"/>
       <c r="V80" s="60"/>
@@ -8491,29 +8759,29 @@
       <c r="B82" s="58"/>
       <c r="D82" s="83"/>
       <c r="E82" s="83" t="s">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="F82" s="83" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="G82" s="83" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="J82" s="83"/>
       <c r="K82" s="83" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="L82" s="83" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="M82" s="83" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
@@ -8521,10 +8789,10 @@
       </c>
       <c r="P82" s="83"/>
       <c r="Q82" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="R82" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -8552,45 +8820,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="82" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="F84" s="82" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G84" s="82" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="H84" s="82" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="I84" s="82" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="J84" s="82" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="K84" s="82"/>
       <c r="L84" s="82" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="M84" s="82" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="N84" s="82" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="O84" s="82"/>
       <c r="P84" s="82" t="s">
-        <v>677</v>
+        <v>789</v>
       </c>
       <c r="Q84" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="R84" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="S84" s="91"/>
       <c r="V84" s="60"/>
@@ -8636,7 +8904,7 @@
       <c r="O85" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="P85" s="103" t="s">
+      <c r="P85" s="106" t="s">
         <v>374</v>
       </c>
       <c r="Q85" s="103" t="s">
@@ -8651,45 +8919,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="83" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="E86" s="83" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="F86" s="83" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G86" s="83" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="H86" s="83" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="I86" s="83" t="s">
-        <v>592</v>
+        <v>489</v>
       </c>
       <c r="J86" s="83" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="K86" s="83"/>
       <c r="L86" s="83" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="M86" s="83" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="N86" s="83" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="O86" s="83"/>
       <c r="P86" s="83" t="s">
-        <v>678</v>
+        <v>790</v>
       </c>
       <c r="Q86" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="R86" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="S86" s="94"/>
       <c r="V86" s="60"/>
@@ -8717,42 +8985,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F88" s="82" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="G88" s="82" t="s">
-        <v>453</v>
+        <v>777</v>
       </c>
       <c r="H88" s="82" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="I88" s="82"/>
       <c r="J88" s="82" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="K88" s="82" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="L88" s="82" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="M88" s="82" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="N88" s="82"/>
       <c r="O88" s="82" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="P88" s="82" t="s">
-        <v>437</v>
+        <v>783</v>
       </c>
       <c r="Q88" s="82" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="R88" s="82"/>
       <c r="S88" s="91"/>
@@ -8814,42 +9082,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="E90" s="83" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F90" s="83" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="G90" s="83" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="H90" s="83" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="I90" s="83"/>
       <c r="J90" s="83" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="K90" s="83" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="L90" s="83" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="M90" s="83" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="N90" s="83"/>
       <c r="O90" s="83" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="P90" s="83" t="s">
-        <v>438</v>
+        <v>784</v>
       </c>
       <c r="Q90" s="83" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="R90" s="83"/>
       <c r="S90" s="94"/>
@@ -8878,43 +9146,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="82" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="E92" s="82" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="F92" s="82"/>
       <c r="G92" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="H92" s="82" t="s">
         <v>415</v>
       </c>
       <c r="I92" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="K92" s="82" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="L92" s="82"/>
       <c r="M92" s="82"/>
       <c r="N92" s="82" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="O92" s="82" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="P92" s="82" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q92" s="82" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="R92" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S92" s="91"/>
       <c r="V92" s="60"/>
@@ -8975,43 +9243,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="83" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="F94" s="83"/>
       <c r="G94" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="H94" s="83" t="s">
         <v>416</v>
       </c>
       <c r="I94" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J94" s="83" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="L94" s="83"/>
       <c r="M94" s="83"/>
       <c r="N94" s="83" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="P94" s="83" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q94" s="83" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="R94" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -9039,10 +9307,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="F96" s="82"/>
       <c r="G96" s="82"/>
@@ -9065,7 +9333,7 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="103" t="s">
+      <c r="D97" s="106" t="s">
         <v>237</v>
       </c>
       <c r="E97" s="103" t="s">
@@ -9094,10 +9362,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>692</v>
+        <v>792</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="F98" s="83"/>
       <c r="G98" s="83"/>
@@ -9223,37 +9491,37 @@
       <c r="D104" s="82"/>
       <c r="E104" s="82"/>
       <c r="F104" s="82" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="H104" s="82"/>
       <c r="I104" s="82" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>453</v>
+        <v>777</v>
       </c>
       <c r="K104" s="82" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
-        <v>459</v>
+        <v>779</v>
       </c>
       <c r="N104" s="82" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
       <c r="P104" s="82" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q104" s="82"/>
       <c r="R104" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="S104" s="91"/>
       <c r="V104" s="60"/>
@@ -9316,37 +9584,37 @@
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="83" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="G106" s="83" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="H106" s="83"/>
       <c r="I106" s="83" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="K106" s="83" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="N106" s="83" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="O106" s="83" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
       <c r="P106" s="83" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="Q106" s="83"/>
       <c r="R106" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -9374,43 +9642,43 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="F108" s="82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="I108" s="82" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="J108" s="82" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="K108" s="82"/>
       <c r="L108" s="82" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="M108" s="82" t="s">
         <v>411</v>
       </c>
       <c r="N108" s="82" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="O108" s="82"/>
       <c r="P108" s="82" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="Q108" s="82" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="R108" s="82" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="S108" s="91"/>
       <c r="V108" s="60"/>
@@ -9471,43 +9739,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="F110" s="83" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="I110" s="83" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="J110" s="83" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="K110" s="83"/>
       <c r="L110" s="83" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="M110" s="83" t="s">
         <v>412</v>
       </c>
       <c r="N110" s="83" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="O110" s="83"/>
       <c r="P110" s="83" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="Q110" s="83" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="R110" s="83" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="S110" s="94"/>
       <c r="V110" s="60"/>
@@ -9539,38 +9807,38 @@
         <v>411</v>
       </c>
       <c r="F112" s="82" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="H112" s="82" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="I112" s="82" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="J112" s="82" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>453</v>
+        <v>777</v>
       </c>
       <c r="L112" s="82" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="M112" s="82"/>
       <c r="N112" s="82" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="O112" s="82" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
       <c r="P112" s="82" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="Q112" s="82" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="R112" s="82"/>
       <c r="S112" s="91"/>
@@ -9614,7 +9882,7 @@
       <c r="N113" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O113" s="105" t="s">
+      <c r="O113" s="107" t="s">
         <v>384</v>
       </c>
       <c r="P113" s="103" t="s">
@@ -9636,38 +9904,38 @@
         <v>412</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="H114" s="83" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="I114" s="83" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J114" s="83" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>454</v>
+        <v>778</v>
       </c>
       <c r="L114" s="83" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="M114" s="83"/>
       <c r="N114" s="83" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="O114" s="83" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
       <c r="P114" s="83" t="s">
-        <v>592</v>
+        <v>489</v>
       </c>
       <c r="Q114" s="83" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="R114" s="83"/>
       <c r="S114" s="94"/>
@@ -9696,22 +9964,22 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="82" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="E116" s="82" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="F116" s="82" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="G116" s="82" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="H116" s="82" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="I116" s="82" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="J116" s="82"/>
       <c r="K116" s="82"/>
@@ -9765,22 +10033,22 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="83" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="E118" s="83" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="F118" s="83" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="G118" s="83" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="H118" s="83" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="I118" s="83" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J118" s="83"/>
       <c r="K118" s="83"/>
@@ -9902,39 +10170,39 @@
       <c r="D124" s="82"/>
       <c r="E124" s="82"/>
       <c r="F124" s="82" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="G124" s="82" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="H124" s="82" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="I124" s="82" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="J124" s="82" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="K124" s="82"/>
       <c r="L124" s="82" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="M124" s="82" t="s">
+        <v>755</v>
+      </c>
+      <c r="N124" s="82" t="s">
+        <v>757</v>
+      </c>
+      <c r="O124" s="82" t="s">
         <v>725</v>
-      </c>
-      <c r="N124" s="82" t="s">
-        <v>727</v>
-      </c>
-      <c r="O124" s="82" t="s">
-        <v>693</v>
       </c>
       <c r="P124" s="82"/>
       <c r="Q124" s="82" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="R124" s="82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="S124" s="91"/>
       <c r="V124" s="60"/>
@@ -9997,39 +10265,39 @@
       <c r="D126" s="83"/>
       <c r="E126" s="83"/>
       <c r="F126" s="83" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="G126" s="83" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I126" s="83" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="J126" s="83" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="K126" s="83"/>
       <c r="L126" s="83" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="M126" s="83" t="s">
+        <v>756</v>
+      </c>
+      <c r="N126" s="83" t="s">
+        <v>758</v>
+      </c>
+      <c r="O126" s="83" t="s">
         <v>726</v>
-      </c>
-      <c r="N126" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="O126" s="83" t="s">
-        <v>694</v>
       </c>
       <c r="P126" s="83"/>
       <c r="Q126" s="83" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="R126" s="83" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
@@ -10058,40 +10326,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="82"/>
       <c r="E128" s="82" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="F128" s="82" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="H128" s="82" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="I128" s="82"/>
       <c r="J128" s="82" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="K128" s="82" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="L128" s="82"/>
       <c r="M128" s="82" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="N128" s="82" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="O128" s="82" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="P128" s="82"/>
       <c r="Q128" s="82" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="R128" s="82" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="S128" s="91"/>
       <c r="V128" s="60"/>
@@ -10119,7 +10387,7 @@
       <c r="I129" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="J129" s="103" t="s">
+      <c r="J129" s="106" t="s">
         <v>403</v>
       </c>
       <c r="K129" s="103" t="s">
@@ -10153,40 +10421,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="83"/>
       <c r="E130" s="83" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="F130" s="83" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="H130" s="83" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="I130" s="83"/>
       <c r="J130" s="83" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="K130" s="83" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="L130" s="83"/>
       <c r="M130" s="83" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="N130" s="83" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="O130" s="83" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="P130" s="83"/>
       <c r="Q130" s="83" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="R130" s="83" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="S130" s="94"/>
       <c r="V130" s="60"/>
@@ -10214,16 +10482,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="82" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="E132" s="82" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="F132" s="82" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="G132" s="82" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="H132" s="82"/>
       <c r="I132" s="82"/>
@@ -10275,16 +10543,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="83" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="E134" s="83" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="F134" s="83" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
       <c r="G134" s="83" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="H134" s="83"/>
       <c r="I134" s="83"/>

--- a/output6/【河洛話注音】《桃花園記》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《桃花園記》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA3800B-9EFD-4B9D-882D-5EF46DD84642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3FF48A-B1AF-4286-A34A-28FBD77BD7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -2891,14 +2891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3291,14 +3283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phiah4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3328,6 +3312,22 @@
   </si>
   <si>
     <t>ㄏㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6369,7 +6369,7 @@
         <v>498</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J20" s="82" t="s">
         <v>455</v>
@@ -6440,7 +6440,7 @@
         <v>499</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J22" s="83" t="s">
         <v>456</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L28" s="82" t="s">
         <v>504</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L30" s="83" t="s">
         <v>505</v>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="82" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M32" s="82" t="s">
         <v>522</v>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="K34" s="83"/>
       <c r="L34" s="83" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M34" s="83" t="s">
         <v>523</v>
@@ -6915,7 +6915,7 @@
         <v>530</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
@@ -6935,7 +6935,7 @@
         <v>435</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="P36" s="82" t="s">
         <v>536</v>
@@ -7010,7 +7010,7 @@
         <v>531</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
@@ -7030,7 +7030,7 @@
         <v>436</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="P38" s="83" t="s">
         <v>537</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="K48" s="82"/>
       <c r="L48" s="82" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M48" s="82" t="s">
         <v>415</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="K50" s="83"/>
       <c r="L50" s="83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M50" s="83" t="s">
         <v>416</v>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="K60" s="82"/>
       <c r="L60" s="82" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M60" s="82" t="s">
         <v>496</v>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="K62" s="83"/>
       <c r="L62" s="83" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M62" s="83" t="s">
         <v>497</v>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="J64" s="82"/>
       <c r="K64" s="82" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="L64" s="82" t="s">
         <v>415</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J66" s="83"/>
       <c r="K66" s="83" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="L66" s="83" t="s">
         <v>416</v>
@@ -8208,7 +8208,7 @@
         <v>657</v>
       </c>
       <c r="N68" s="82" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="O68" s="82" t="s">
         <v>659</v>
@@ -8303,7 +8303,7 @@
         <v>658</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="O70" s="83" t="s">
         <v>660</v>
@@ -8509,7 +8509,7 @@
         <v>683</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>685</v>
+        <v>793</v>
       </c>
       <c r="F76" s="82" t="s">
         <v>604</v>
@@ -8518,10 +8518,10 @@
         <v>421</v>
       </c>
       <c r="H76" s="82" t="s">
+        <v>685</v>
+      </c>
+      <c r="I76" s="82" t="s">
         <v>687</v>
-      </c>
-      <c r="I76" s="82" t="s">
-        <v>689</v>
       </c>
       <c r="J76" s="82"/>
       <c r="K76" s="82"/>
@@ -8530,13 +8530,13 @@
       </c>
       <c r="M76" s="82"/>
       <c r="N76" s="82" t="s">
+        <v>689</v>
+      </c>
+      <c r="O76" s="82" t="s">
         <v>691</v>
       </c>
-      <c r="O76" s="82" t="s">
+      <c r="P76" s="82" t="s">
         <v>693</v>
-      </c>
-      <c r="P76" s="82" t="s">
-        <v>695</v>
       </c>
       <c r="Q76" s="82" t="s">
         <v>657</v>
@@ -8604,7 +8604,7 @@
         <v>684</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>686</v>
+        <v>794</v>
       </c>
       <c r="F78" s="83" t="s">
         <v>605</v>
@@ -8613,10 +8613,10 @@
         <v>422</v>
       </c>
       <c r="H78" s="83" t="s">
+        <v>686</v>
+      </c>
+      <c r="I78" s="83" t="s">
         <v>688</v>
-      </c>
-      <c r="I78" s="83" t="s">
-        <v>690</v>
       </c>
       <c r="J78" s="83"/>
       <c r="K78" s="83"/>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="M78" s="83"/>
       <c r="N78" s="83" t="s">
+        <v>690</v>
+      </c>
+      <c r="O78" s="83" t="s">
         <v>692</v>
       </c>
-      <c r="O78" s="83" t="s">
+      <c r="P78" s="83" t="s">
         <v>694</v>
-      </c>
-      <c r="P78" s="83" t="s">
-        <v>696</v>
       </c>
       <c r="Q78" s="83" t="s">
         <v>658</v>
@@ -8670,23 +8670,23 @@
         <v>677</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H80" s="82" t="s">
         <v>510</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J80" s="82"/>
       <c r="K80" s="82" t="s">
         <v>463</v>
       </c>
       <c r="L80" s="82" t="s">
+        <v>699</v>
+      </c>
+      <c r="M80" s="82" t="s">
         <v>701</v>
-      </c>
-      <c r="M80" s="82" t="s">
-        <v>703</v>
       </c>
       <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
@@ -8765,23 +8765,23 @@
         <v>678</v>
       </c>
       <c r="G82" s="83" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H82" s="83" t="s">
         <v>511</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J82" s="83"/>
       <c r="K82" s="83" t="s">
         <v>464</v>
       </c>
       <c r="L82" s="83" t="s">
+        <v>700</v>
+      </c>
+      <c r="M82" s="83" t="s">
         <v>702</v>
-      </c>
-      <c r="M82" s="83" t="s">
-        <v>704</v>
       </c>
       <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
@@ -8832,7 +8832,7 @@
         <v>633</v>
       </c>
       <c r="H84" s="82" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I84" s="82" t="s">
         <v>632</v>
@@ -8842,17 +8842,17 @@
       </c>
       <c r="K84" s="82"/>
       <c r="L84" s="82" t="s">
+        <v>705</v>
+      </c>
+      <c r="M84" s="82" t="s">
         <v>707</v>
       </c>
-      <c r="M84" s="82" t="s">
+      <c r="N84" s="82" t="s">
         <v>709</v>
-      </c>
-      <c r="N84" s="82" t="s">
-        <v>711</v>
       </c>
       <c r="O84" s="82"/>
       <c r="P84" s="82" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="Q84" s="82" t="s">
         <v>421</v>
@@ -8931,7 +8931,7 @@
         <v>634</v>
       </c>
       <c r="H86" s="83" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I86" s="83" t="s">
         <v>489</v>
@@ -8941,17 +8941,17 @@
       </c>
       <c r="K86" s="83"/>
       <c r="L86" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" s="83" t="s">
         <v>708</v>
       </c>
-      <c r="M86" s="83" t="s">
+      <c r="N86" s="83" t="s">
         <v>710</v>
-      </c>
-      <c r="N86" s="83" t="s">
-        <v>712</v>
       </c>
       <c r="O86" s="83"/>
       <c r="P86" s="83" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="Q86" s="83" t="s">
         <v>422</v>
@@ -8991,17 +8991,17 @@
         <v>431</v>
       </c>
       <c r="F88" s="82" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G88" s="82" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H88" s="82" t="s">
         <v>574</v>
       </c>
       <c r="I88" s="82"/>
       <c r="J88" s="82" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K88" s="82" t="s">
         <v>679</v>
@@ -9014,13 +9014,13 @@
       </c>
       <c r="N88" s="82"/>
       <c r="O88" s="82" t="s">
+        <v>713</v>
+      </c>
+      <c r="P88" s="82" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q88" s="82" t="s">
         <v>715</v>
-      </c>
-      <c r="P88" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q88" s="82" t="s">
-        <v>717</v>
       </c>
       <c r="R88" s="82"/>
       <c r="S88" s="91"/>
@@ -9088,17 +9088,17 @@
         <v>432</v>
       </c>
       <c r="F90" s="83" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G90" s="83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H90" s="83" t="s">
         <v>575</v>
       </c>
       <c r="I90" s="83"/>
       <c r="J90" s="83" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K90" s="83" t="s">
         <v>680</v>
@@ -9111,13 +9111,13 @@
       </c>
       <c r="N90" s="83"/>
       <c r="O90" s="83" t="s">
+        <v>714</v>
+      </c>
+      <c r="P90" s="83" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q90" s="83" t="s">
         <v>716</v>
-      </c>
-      <c r="P90" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q90" s="83" t="s">
-        <v>718</v>
       </c>
       <c r="R90" s="83"/>
       <c r="S90" s="94"/>
@@ -9149,7 +9149,7 @@
         <v>661</v>
       </c>
       <c r="E92" s="82" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F92" s="82"/>
       <c r="G92" s="82" t="s">
@@ -9162,7 +9162,7 @@
         <v>421</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K92" s="82" t="s">
         <v>653</v>
@@ -9173,7 +9173,7 @@
         <v>677</v>
       </c>
       <c r="O92" s="82" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="P92" s="82" t="s">
         <v>427</v>
@@ -9246,7 +9246,7 @@
         <v>662</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F94" s="83"/>
       <c r="G94" s="83" t="s">
@@ -9259,7 +9259,7 @@
         <v>422</v>
       </c>
       <c r="J94" s="83" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K94" s="83" t="s">
         <v>654</v>
@@ -9270,7 +9270,7 @@
         <v>678</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="P94" s="83" t="s">
         <v>428</v>
@@ -9307,10 +9307,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F96" s="82"/>
       <c r="G96" s="82"/>
@@ -9362,10 +9362,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F98" s="83"/>
       <c r="G98" s="83"/>
@@ -9491,7 +9491,7 @@
       <c r="D104" s="82"/>
       <c r="E104" s="82"/>
       <c r="F104" s="82" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G104" s="82" t="s">
         <v>679</v>
@@ -9501,20 +9501,20 @@
         <v>504</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K104" s="82" t="s">
         <v>524</v>
       </c>
       <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N104" s="82" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="P104" s="82" t="s">
         <v>439</v>
@@ -9584,7 +9584,7 @@
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="83" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G106" s="83" t="s">
         <v>680</v>
@@ -9594,20 +9594,20 @@
         <v>505</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K106" s="83" t="s">
         <v>525</v>
       </c>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N106" s="83" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O106" s="83" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="P106" s="83" t="s">
         <v>440</v>
@@ -9645,24 +9645,24 @@
         <v>647</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F108" s="82" t="s">
         <v>441</v>
       </c>
       <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="I108" s="82" t="s">
         <v>731</v>
       </c>
-      <c r="I108" s="82" t="s">
+      <c r="J108" s="82" t="s">
         <v>733</v>
-      </c>
-      <c r="J108" s="82" t="s">
-        <v>735</v>
       </c>
       <c r="K108" s="82"/>
       <c r="L108" s="82" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M108" s="82" t="s">
         <v>411</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="O108" s="82"/>
       <c r="P108" s="82" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Q108" s="82" t="s">
         <v>602</v>
@@ -9742,24 +9742,24 @@
         <v>648</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F110" s="83" t="s">
         <v>442</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
+        <v>730</v>
+      </c>
+      <c r="I110" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="I110" s="83" t="s">
+      <c r="J110" s="83" t="s">
         <v>734</v>
-      </c>
-      <c r="J110" s="83" t="s">
-        <v>736</v>
       </c>
       <c r="K110" s="83"/>
       <c r="L110" s="83" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M110" s="83" t="s">
         <v>412</v>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="O110" s="83"/>
       <c r="P110" s="83" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Q110" s="83" t="s">
         <v>603</v>
@@ -9810,7 +9810,7 @@
         <v>641</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H112" s="82" t="s">
         <v>578</v>
@@ -9819,26 +9819,26 @@
         <v>421</v>
       </c>
       <c r="J112" s="82" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L112" s="82" t="s">
         <v>584</v>
       </c>
       <c r="M112" s="82"/>
       <c r="N112" s="82" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="O112" s="82" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="P112" s="82" t="s">
         <v>632</v>
       </c>
       <c r="Q112" s="82" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R112" s="82"/>
       <c r="S112" s="91"/>
@@ -9907,7 +9907,7 @@
         <v>642</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H114" s="83" t="s">
         <v>579</v>
@@ -9916,26 +9916,26 @@
         <v>422</v>
       </c>
       <c r="J114" s="83" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L114" s="83" t="s">
         <v>585</v>
       </c>
       <c r="M114" s="83"/>
       <c r="N114" s="83" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="O114" s="83" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="P114" s="83" t="s">
         <v>489</v>
       </c>
       <c r="Q114" s="83" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R114" s="83"/>
       <c r="S114" s="94"/>
@@ -9967,7 +9967,7 @@
         <v>683</v>
       </c>
       <c r="E116" s="82" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F116" s="82" t="s">
         <v>677</v>
@@ -10036,7 +10036,7 @@
         <v>684</v>
       </c>
       <c r="E118" s="83" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F118" s="83" t="s">
         <v>678</v>
@@ -10173,29 +10173,29 @@
         <v>592</v>
       </c>
       <c r="G124" s="82" t="s">
+        <v>747</v>
+      </c>
+      <c r="H124" s="82" t="s">
         <v>749</v>
-      </c>
-      <c r="H124" s="82" t="s">
-        <v>751</v>
       </c>
       <c r="I124" s="82" t="s">
         <v>669</v>
       </c>
       <c r="J124" s="82" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K124" s="82"/>
       <c r="L124" s="82" t="s">
+        <v>751</v>
+      </c>
+      <c r="M124" s="82" t="s">
         <v>753</v>
       </c>
-      <c r="M124" s="82" t="s">
+      <c r="N124" s="82" t="s">
         <v>755</v>
       </c>
-      <c r="N124" s="82" t="s">
-        <v>757</v>
-      </c>
       <c r="O124" s="82" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="P124" s="82"/>
       <c r="Q124" s="82" t="s">
@@ -10268,29 +10268,29 @@
         <v>593</v>
       </c>
       <c r="G126" s="83" t="s">
+        <v>748</v>
+      </c>
+      <c r="H126" s="83" t="s">
         <v>750</v>
-      </c>
-      <c r="H126" s="83" t="s">
-        <v>752</v>
       </c>
       <c r="I126" s="83" t="s">
         <v>670</v>
       </c>
       <c r="J126" s="83" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="K126" s="83"/>
       <c r="L126" s="83" t="s">
+        <v>752</v>
+      </c>
+      <c r="M126" s="83" t="s">
         <v>754</v>
       </c>
-      <c r="M126" s="83" t="s">
+      <c r="N126" s="83" t="s">
         <v>756</v>
       </c>
-      <c r="N126" s="83" t="s">
-        <v>758</v>
-      </c>
       <c r="O126" s="83" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="P126" s="83"/>
       <c r="Q126" s="83" t="s">
@@ -10326,37 +10326,37 @@
       <c r="B128" s="56"/>
       <c r="D128" s="82"/>
       <c r="E128" s="82" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F128" s="82" t="s">
         <v>540</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H128" s="82" t="s">
         <v>584</v>
       </c>
       <c r="I128" s="82"/>
       <c r="J128" s="82" t="s">
+        <v>761</v>
+      </c>
+      <c r="K128" s="82" t="s">
         <v>763</v>
-      </c>
-      <c r="K128" s="82" t="s">
-        <v>765</v>
       </c>
       <c r="L128" s="82"/>
       <c r="M128" s="82" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N128" s="82" t="s">
+        <v>765</v>
+      </c>
+      <c r="O128" s="82" t="s">
         <v>767</v>
-      </c>
-      <c r="O128" s="82" t="s">
-        <v>769</v>
       </c>
       <c r="P128" s="82"/>
       <c r="Q128" s="82" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="R128" s="82" t="s">
         <v>683</v>
@@ -10421,37 +10421,37 @@
       <c r="B130" s="58"/>
       <c r="D130" s="83"/>
       <c r="E130" s="83" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F130" s="83" t="s">
         <v>541</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H130" s="83" t="s">
         <v>585</v>
       </c>
       <c r="I130" s="83"/>
       <c r="J130" s="83" t="s">
+        <v>762</v>
+      </c>
+      <c r="K130" s="83" t="s">
         <v>764</v>
-      </c>
-      <c r="K130" s="83" t="s">
-        <v>766</v>
       </c>
       <c r="L130" s="83"/>
       <c r="M130" s="83" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N130" s="83" t="s">
+        <v>766</v>
+      </c>
+      <c r="O130" s="83" t="s">
         <v>768</v>
-      </c>
-      <c r="O130" s="83" t="s">
-        <v>770</v>
       </c>
       <c r="P130" s="83"/>
       <c r="Q130" s="83" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="R130" s="83" t="s">
         <v>684</v>
@@ -10488,10 +10488,10 @@
         <v>630</v>
       </c>
       <c r="F132" s="82" t="s">
+        <v>771</v>
+      </c>
+      <c r="G132" s="82" t="s">
         <v>773</v>
-      </c>
-      <c r="G132" s="82" t="s">
-        <v>775</v>
       </c>
       <c r="H132" s="82"/>
       <c r="I132" s="82"/>
@@ -10549,10 +10549,10 @@
         <v>631</v>
       </c>
       <c r="F134" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="G134" s="83" t="s">
         <v>774</v>
-      </c>
-      <c r="G134" s="83" t="s">
-        <v>776</v>
       </c>
       <c r="H134" s="83"/>
       <c r="I134" s="83"/>
